--- a/downloaded_files/EPES421_Tutorial-35440.xlsx
+++ b/downloaded_files/EPES421_Tutorial-35440.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -235,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>keven meshel zarif kamel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عماد محمد ابوجميل جمعة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Emad Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4191314</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -750,7 +759,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.920625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45926.743393831</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4872616551</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45906.4872616551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4182630787</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.4182630787</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electrical Machines Drives (EPES421) Location : [18202]18202-60-الجيزة الرئيسي Time : Monday(13:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EPES421_Tutorial-35440.xlsx
+++ b/downloaded_files/EPES421_Tutorial-35440.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -208,6 +208,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Abass Nassef Mourad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حاتم محمد محمود عبد المطلب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hatem Mohamed Abdelmottaleb</x:t>
   </x:si>
   <x:si>
     <x:t>1210263</x:t>
@@ -449,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1478,7 +1487,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45927.420625544</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4142712153</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45926.743393831</x:v>
+        <x:v>45906.4142712153</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45926.743393831</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4872616551</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45906.4872616551</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4182630787</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.4182630787</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1911,6 +1920,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES421_Tutorial-35440.xlsx
+++ b/downloaded_files/EPES421_Tutorial-35440.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -82,6 +82,12 @@
   </x:si>
   <x:si>
     <x:t>pakiname hatem hafez chaaban</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تيما غسان الراعى</x:t>
   </x:si>
   <x:si>
     <x:t>1210004</x:t>
@@ -458,7 +464,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +764,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1035,11 +1041,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45935.7907480324</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1062,16 +1066,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4195042477</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1094,16 +1098,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45906.4195042477</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1126,16 +1130,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1158,16 +1162,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1190,16 +1194,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1222,16 +1226,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.4533125347</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1254,16 +1258,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1286,16 +1290,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4504597222</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1318,16 +1322,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4504597222</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1350,16 +1354,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,16 +1386,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4829779282</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,16 +1418,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45909.4829779282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,16 +1450,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,16 +1482,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.420625544</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,16 +1514,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45927.420625544</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,16 +1546,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,16 +1578,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4142712153</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,16 +1610,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45926.743393831</x:v>
+        <x:v>45906.4142712153</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,16 +1642,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45926.743393831</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,16 +1674,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,16 +1706,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,16 +1738,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4872616551</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,16 +1770,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45906.4872616551</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,16 +1802,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,16 +1834,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,16 +1866,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,16 +1898,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4182630787</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1926,16 +1930,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.4182630787</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1956,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
